--- a/TestData/MasterData-SIT.xlsx
+++ b/TestData/MasterData-SIT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Katalon Studio\KatalonDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2A362-75E4-4314-8785-CA8D690E7CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F3CB6-C9AD-4F6B-A53C-D0A4EDCA4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>AddressLine1</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Add2</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Tamil Nadu</t>
   </si>
   <si>
@@ -69,19 +66,10 @@
     <t>Address2</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>Maharastra</t>
   </si>
   <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Ad1</t>
-  </si>
-  <si>
-    <t>Ad2</t>
+    <t>Mohit</t>
   </si>
 </sst>
 </file>
@@ -399,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,24 +436,24 @@
         <v>9789723673</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>600233</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3">
         <v>7363632873</v>
@@ -474,36 +462,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>635235</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>8867127222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>672345</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
